--- a/objetivos_en_clase.xlsx
+++ b/objetivos_en_clase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phzam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phzam\pandas_exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD08306-6BC9-4457-ADB1-3992ADFAD874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ABE758-4EB4-45B9-8437-93970A2F22BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{DDE8CA27-9765-4852-A32F-CE07A8C08783}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDE8CA27-9765-4852-A32F-CE07A8C08783}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="23">
   <si>
     <t>FECHA</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>ORM + creación de consultas simples</t>
+  </si>
+  <si>
+    <t>Principios de Git</t>
   </si>
 </sst>
 </file>
@@ -584,9 +587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C621E506-32D2-45CE-A14A-9A109934E25D}">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,8 +743,8 @@
         <f t="shared" si="1"/>
         <v>si</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>19</v>
+      <c r="D11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,7 +771,7 @@
         <v>si</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -830,8 +833,8 @@
         <f t="shared" si="1"/>
         <v>si</v>
       </c>
-      <c r="D18" t="s">
-        <v>14</v>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -858,7 +861,7 @@
         <v>si</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,7 +924,7 @@
         <v>si</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,7 +951,7 @@
         <v>si</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,7 +1014,7 @@
         <v>si</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1236,7 +1239,7 @@
         <v>si</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1299,7 +1302,7 @@
         <v>si</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1325,6 +1328,9 @@
         <f t="shared" si="1"/>
         <v>si</v>
       </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -1384,6 +1390,9 @@
       <c r="C60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>si</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">

--- a/objetivos_en_clase.xlsx
+++ b/objetivos_en_clase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phzam\pandas_exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ABE758-4EB4-45B9-8437-93970A2F22BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1E7D28-3FC2-470F-B34F-B631AEB526C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDE8CA27-9765-4852-A32F-CE07A8C08783}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>repaso final de SOLID + FluentValidation + Validacion con SOLID</t>
   </si>
   <si>
-    <t>Fluent Validation + regex + ejemplo práctico con pandas</t>
-  </si>
-  <si>
     <t>Introducción a bases de datos + consultas prácticas con ejercicios</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Principios de Git</t>
+  </si>
+  <si>
+    <t>Repaso Git + regex + Fluent Validation +ejemplo práctico con pandas</t>
   </si>
 </sst>
 </file>
@@ -196,7 +196,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,9 +211,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -589,7 +586,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,127 +613,127 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>45444</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="str">
+      <c r="C2" s="10" t="str">
         <f t="shared" ref="C2:C4" si="0">IF(B2="L","si",IF(B2="X","si","no"))</f>
         <v>no</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>45445</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11" t="str">
+      <c r="C3" s="10" t="str">
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>45446</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="10" t="str">
         <f t="shared" si="0"/>
         <v>si</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>45447</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="10" t="str">
         <f t="shared" ref="C5:C60" si="1">IF(B5="L","si",IF(B5="X","si","no"))</f>
         <v>no</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>45448</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>si</v>
-      </c>
-      <c r="D6" s="12"/>
+      <c r="C6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>si</v>
+      </c>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>45449</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>no</v>
-      </c>
-      <c r="D7" s="12"/>
+      <c r="C7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>45450</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>no</v>
-      </c>
-      <c r="D8" s="12"/>
+      <c r="C8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>45451</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>no</v>
-      </c>
-      <c r="D9" s="12"/>
+      <c r="C9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>45452</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>no</v>
-      </c>
-      <c r="D10" s="12"/>
+      <c r="C10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="8">
         <v>45453</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="str">
@@ -744,97 +741,97 @@
         <v>si</v>
       </c>
       <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>45454</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>45455</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>si</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>45456</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>45457</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>45458</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>45459</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>45460</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>si</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45454</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45455</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>si</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45456</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45457</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45458</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>45459</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>45460</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>si</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,7 +1024,7 @@
       <c r="C33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1041,7 +1038,7 @@
       <c r="C34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1055,7 +1052,7 @@
       <c r="C35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1069,7 +1066,7 @@
       <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1083,7 +1080,7 @@
       <c r="C37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1097,7 +1094,7 @@
       <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1111,7 +1108,7 @@
       <c r="C39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1125,7 +1122,7 @@
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1139,7 +1136,7 @@
       <c r="C41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1153,7 +1150,7 @@
       <c r="C42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1167,7 +1164,7 @@
       <c r="C43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1181,7 +1178,7 @@
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1195,7 +1192,7 @@
       <c r="C45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1209,7 +1206,7 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1223,7 +1220,7 @@
       <c r="C47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1329,7 +1326,7 @@
         <v>si</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1392,7 +1389,7 @@
         <v>si</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1429,7 +1426,7 @@
       <c r="C63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1443,7 +1440,7 @@
       <c r="C64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1457,7 +1454,7 @@
       <c r="C65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1471,7 +1468,7 @@
       <c r="C66" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1485,7 +1482,7 @@
       <c r="C67" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1499,7 +1496,7 @@
       <c r="C68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1513,7 +1510,7 @@
       <c r="C69" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1527,7 +1524,7 @@
       <c r="C70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1614,7 +1611,7 @@
         <f t="shared" si="2"/>
         <v>no</v>
       </c>
-      <c r="I77" s="7"/>
+      <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">

--- a/objetivos_en_clase.xlsx
+++ b/objetivos_en_clase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phzam\pandas_exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1E7D28-3FC2-470F-B34F-B631AEB526C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B76C36-6D19-4CE5-9422-3750F44A120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDE8CA27-9765-4852-A32F-CE07A8C08783}"/>
   </bookViews>
@@ -107,7 +107,7 @@
     <t>Principios de Git</t>
   </si>
   <si>
-    <t>Repaso Git + regex + Fluent Validation +ejemplo práctico con pandas</t>
+    <t xml:space="preserve">Repaso Git + regex + test unitarios + Fluent Validation </t>
   </si>
 </sst>
 </file>
@@ -584,9 +584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C621E506-32D2-45CE-A14A-9A109934E25D}">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
